--- a/src/shop.xlsx
+++ b/src/shop.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,18 @@
   </si>
   <si>
     <t>huanxin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂林电子科技大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,8 +82,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -373,28 +388,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>121121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
